--- a/documents/Chart_Mockups.xlsx
+++ b/documents/Chart_Mockups.xlsx
@@ -2,26 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UTData\Github\databootcamp-homework\Brexit_and_UK_Election\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UTData\Brexit_and_UK_Election\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C2F78A-6487-4115-B853-50F1DDF1A303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0753FDF-FE71-4DED-873E-84924A8B20AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B39B4659-8465-40B3-99FE-DD4B09E3A95E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$54:$A$61</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$53</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$54:$B$61</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$53</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$54:$C$61</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>LEAVE</t>
   </si>
@@ -107,12 +100,30 @@
   <si>
     <t>REGION8</t>
   </si>
+  <si>
+    <t>NATIONAL ELECTION RESULT COMPARISON</t>
+  </si>
+  <si>
+    <t>REGION 1</t>
+  </si>
+  <si>
+    <t>REGION 2</t>
+  </si>
+  <si>
+    <t>REGION 3</t>
+  </si>
+  <si>
+    <t>REGION 4</t>
+  </si>
+  <si>
+    <t>ELECTION</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +143,12 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,6 +235,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5FA2-477F-BAF7-375D91B9D684}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -233,6 +255,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5FA2-477F-BAF7-375D91B9D684}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -399,6 +426,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8E44-467C-83D8-E0CB56F4CEAD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -414,6 +446,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8E44-467C-83D8-E0CB56F4CEAD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -429,6 +466,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8E44-467C-83D8-E0CB56F4CEAD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -444,6 +486,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8E44-467C-83D8-E0CB56F4CEAD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -5507,15 +5554,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBA1794-8238-4704-B5B6-CC81857780AA}">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T61" sqref="T61"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="O86" sqref="O86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
@@ -5833,11 +5884,277 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73">
+        <v>2016</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <v>2016</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75">
+        <v>2016</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76">
+        <v>2016</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77">
+        <v>2017</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78">
+        <v>2017</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79">
+        <v>2017</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80">
+        <v>2017</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81">
+        <v>2019</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84">
+        <v>2019</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
